--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,64 +43,286 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>18030100304</t>
-  </si>
-  <si>
-    <t>18010119325</t>
-  </si>
-  <si>
-    <t>18030102457</t>
-  </si>
-  <si>
-    <t>18030001747</t>
-  </si>
-  <si>
-    <t>Sathi Pharmacy</t>
-  </si>
-  <si>
-    <t>Elias Medical Hall</t>
-  </si>
-  <si>
-    <t>Khyem Pharmacy</t>
-  </si>
-  <si>
-    <t>Holy Crescent Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raipura Hospita Gate Raipura                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station Road Narshingdi                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadar Hospital B Baria                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorur Hater More Madhabdi                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-388934     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-389449     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-389567     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-389586     </t>
+    <t>90000017191</t>
+  </si>
+  <si>
+    <t>44019002642</t>
+  </si>
+  <si>
+    <t>44031000110</t>
+  </si>
+  <si>
+    <t>44019003700</t>
+  </si>
+  <si>
+    <t>44019000037</t>
+  </si>
+  <si>
+    <t>44019001183</t>
+  </si>
+  <si>
+    <t>44031106944</t>
+  </si>
+  <si>
+    <t>44019002303</t>
+  </si>
+  <si>
+    <t>44019000802</t>
+  </si>
+  <si>
+    <t>44037800943</t>
+  </si>
+  <si>
+    <t>4401900206</t>
+  </si>
+  <si>
+    <t>44019002630</t>
+  </si>
+  <si>
+    <t>44037800819</t>
+  </si>
+  <si>
+    <t>44031101821</t>
+  </si>
+  <si>
+    <t>90000009207</t>
+  </si>
+  <si>
+    <t>44031000004</t>
+  </si>
+  <si>
+    <t>44019000437</t>
+  </si>
+  <si>
+    <t>44019000080</t>
+  </si>
+  <si>
+    <t>44019000314</t>
+  </si>
+  <si>
+    <t>44037801134</t>
+  </si>
+  <si>
+    <t>Taj Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Asim</t>
+  </si>
+  <si>
+    <t>Dr Asraful</t>
+  </si>
+  <si>
+    <t>Shaikh Pharmacy</t>
+  </si>
+  <si>
+    <t>Anuska Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarder Pharmacy</t>
+  </si>
+  <si>
+    <t>Beauty Pharmacy</t>
+  </si>
+  <si>
+    <t>Sathi Shasthya Seba Clinic</t>
+  </si>
+  <si>
+    <t>Mukta Trishna Pharmacy</t>
+  </si>
+  <si>
+    <t>Shaik Pharmacy</t>
+  </si>
+  <si>
+    <t>Majid Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Touhidul Islam</t>
+  </si>
+  <si>
+    <t>Dr Volanath Paul</t>
+  </si>
+  <si>
+    <t>Ety Pharmacy</t>
+  </si>
+  <si>
+    <t>Satkhira Troma Center</t>
+  </si>
+  <si>
+    <t>Satata Pharmacy</t>
+  </si>
+  <si>
+    <t>Kohinoor Pharmacy</t>
+  </si>
+  <si>
+    <t>Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
+    <t>Saleha Medical Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollarhat,Krishnanagar,Shyamnagor,Satkhira                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhanagor Bazar Lohagara 01718136400 Narail                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaik Bari Chadnimukha Gabura Shyamnagar                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C And B Stand Lohagara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taltola Bazar Nowapara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manikganj Bazar Lohagara Narail                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalta Bazar Kaligonj Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chachra More Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimtola Bazar Chowgacha Jessore                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaik Bari Chadnimukha Gabura Shayamnagor                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Dighi Vatpara Noapara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotakol Bazar Lohagara Narail                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhatshala Parulia Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetkhali Shaymnagar Satkhira                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narikle Tola More,Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polashpole Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chutipur Bazar Jessore                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowgacha Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhikorgacha Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patkelghata Bazar Patkelghata Khulna MD Mehedi Hassan       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS104                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466183     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465674     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465009     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465990     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466018     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465986     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465758     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465232     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466060     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465007     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465748     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465699     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466223     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466522     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466430     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466495     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-458504     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466536     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466623     </t>
   </si>
   <si>
     <t>19 Sep 2020</t>
@@ -109,7 +331,7 @@
     <t>20 Sep 2020</t>
   </si>
   <si>
-    <t>21 Sep 2020</t>
+    <t>05 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -467,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +744,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -543,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9417.5</v>
+        <v>19403.15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -554,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6969.71</v>
+        <v>15222.91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -586,28 +808,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>34687.8</v>
+        <v>15186.18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -618,28 +840,540 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15123.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>14062.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12440.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>12098.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12063.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>12054.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>12010.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8471.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7112.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3413.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>30082.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>30030.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>24917.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>21361.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>19621.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>7392.44</v>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>14963.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,295 +43,277 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>90000017191</t>
-  </si>
-  <si>
-    <t>44019002642</t>
-  </si>
-  <si>
-    <t>44031000110</t>
-  </si>
-  <si>
-    <t>44019003700</t>
-  </si>
-  <si>
-    <t>44019000037</t>
-  </si>
-  <si>
-    <t>44019001183</t>
-  </si>
-  <si>
-    <t>44031106944</t>
-  </si>
-  <si>
-    <t>44019002303</t>
-  </si>
-  <si>
-    <t>44019000802</t>
-  </si>
-  <si>
-    <t>44037800943</t>
-  </si>
-  <si>
-    <t>4401900206</t>
-  </si>
-  <si>
-    <t>44019002630</t>
-  </si>
-  <si>
-    <t>44037800819</t>
-  </si>
-  <si>
-    <t>44031101821</t>
-  </si>
-  <si>
-    <t>90000009207</t>
-  </si>
-  <si>
-    <t>44031000004</t>
-  </si>
-  <si>
-    <t>44019000437</t>
-  </si>
-  <si>
-    <t>44019000080</t>
-  </si>
-  <si>
-    <t>44019000314</t>
-  </si>
-  <si>
-    <t>44037801134</t>
-  </si>
-  <si>
-    <t>Taj Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr Asim</t>
-  </si>
-  <si>
-    <t>Dr Asraful</t>
-  </si>
-  <si>
-    <t>Shaikh Pharmacy</t>
-  </si>
-  <si>
-    <t>Anuska Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarder Pharmacy</t>
-  </si>
-  <si>
-    <t>Beauty Pharmacy</t>
-  </si>
-  <si>
-    <t>Sathi Shasthya Seba Clinic</t>
-  </si>
-  <si>
-    <t>Mukta Trishna Pharmacy</t>
-  </si>
-  <si>
-    <t>Shaik Pharmacy</t>
-  </si>
-  <si>
-    <t>Majid Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr Touhidul Islam</t>
-  </si>
-  <si>
-    <t>Dr Volanath Paul</t>
-  </si>
-  <si>
-    <t>Ety Pharmacy</t>
-  </si>
-  <si>
-    <t>Satkhira Troma Center</t>
-  </si>
-  <si>
-    <t>Satata Pharmacy</t>
-  </si>
-  <si>
-    <t>Kohinoor Pharmacy</t>
-  </si>
-  <si>
-    <t>Primary Health Care Center</t>
-  </si>
-  <si>
-    <t>Medicine Corner</t>
-  </si>
-  <si>
-    <t>Saleha Medical Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollarhat,Krishnanagar,Shyamnagor,Satkhira                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radhanagor Bazar Lohagara 01718136400 Narail                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaik Bari Chadnimukha Gabura Shyamnagar                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C And B Stand Lohagara                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taltola Bazar Nowapara                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manikganj Bazar Lohagara Narail                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nalta Bazar Kaligonj Satkhira                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chachra More Jessore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nimtola Bazar Chowgacha Jessore                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaik Bari Chadnimukha Gabura Shayamnagor                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uttar Dighi Vatpara Noapara                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotakol Bazar Lohagara Narail                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhatshala Parulia Satkhira                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vetkhali Shaymnagar Satkhira                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narikle Tola More,Satkhira                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polashpole Satkhira                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chutipur Bazar Jessore                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowgacha Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhikorgacha Jessore                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patkelghata Bazar Patkelghata Khulna MD Mehedi Hassan       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS104                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466183     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465674     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465009     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465990     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466018     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465986     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465758     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465232     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466060     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465007     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465748     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465699     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466223     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465913     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466522     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466430     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466495     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-458504     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466536     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466623     </t>
+    <t>12010124115</t>
+  </si>
+  <si>
+    <t>12010111044</t>
+  </si>
+  <si>
+    <t>12010507910</t>
+  </si>
+  <si>
+    <t>12010506279</t>
+  </si>
+  <si>
+    <t>12010509931</t>
+  </si>
+  <si>
+    <t>12010506801</t>
+  </si>
+  <si>
+    <t>12010511138</t>
+  </si>
+  <si>
+    <t>12010146733</t>
+  </si>
+  <si>
+    <t>12010511290</t>
+  </si>
+  <si>
+    <t>12013131363</t>
+  </si>
+  <si>
+    <t>12010119102</t>
+  </si>
+  <si>
+    <t>12010503254</t>
+  </si>
+  <si>
+    <t>12010139784</t>
+  </si>
+  <si>
+    <t>12010510072</t>
+  </si>
+  <si>
+    <t>12010121022</t>
+  </si>
+  <si>
+    <t>12010511196</t>
+  </si>
+  <si>
+    <t>12010508615</t>
+  </si>
+  <si>
+    <t>Momotaz Pharmacy</t>
+  </si>
+  <si>
+    <t>Nurunnahar Pharmacy</t>
+  </si>
+  <si>
+    <t>Belal Medical Hall</t>
+  </si>
+  <si>
+    <t>Kidney Foundation</t>
+  </si>
+  <si>
+    <t>Ma Pharmacy</t>
+  </si>
+  <si>
+    <t>Tashrifa Pharmacy</t>
+  </si>
+  <si>
+    <t>Allar Dan Pharmacy</t>
+  </si>
+  <si>
+    <t>Medi Fair</t>
+  </si>
+  <si>
+    <t>Health Care Pharmacy</t>
+  </si>
+  <si>
+    <t>BAVS Metarnity Hospital</t>
+  </si>
+  <si>
+    <t>Bichitra Shawli</t>
+  </si>
+  <si>
+    <t>Nahin Medicine Corner</t>
+  </si>
+  <si>
+    <t>Crecent Medicine Corner</t>
+  </si>
+  <si>
+    <t>Yeasin Pharma</t>
+  </si>
+  <si>
+    <t>Global Specialized Hospital Ph</t>
+  </si>
+  <si>
+    <t>Bangladesh Specialized Hospita</t>
+  </si>
+  <si>
+    <t>Centre For Kidney Diseas And U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansar Camp Bus Stand,Mirpur 1,Dhaka                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satter Market,Dhaka Cantonment,Dhaka                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoo Road,OGSB,Hospital,Mirpur 2,Dhaka                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirpur 2,Dhaka                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">184 No Dhamal coat ,Showkhin Road,Dhaka                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirpur   10 A,Beside Aziz Medical Hall,Dhaka                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janata Housing Gate,Mirpur 1,Mirpur                         </t>
+  </si>
+  <si>
+    <t>H 01, Ln 25, Block C, Avenue 5,Near New Chandpur P, Mirpur 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananda Bazar,Shawrapara,Mirpur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beside of Mirpur Model ThanaMirpur 2,Mirpur                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, Al  Noori Jama Mosjid,2nd Floor, Mirpur  1,Dhaka         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 4, Shenpara, Near Shibli Pharmacy,Mirpur  10,Dhaka        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 1  Ka, Shah Ali Bag,Crecent Homes,Mirpur  1             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 9, Block  F,joint Quater,Madrasha road, Mdpur,Dhaka       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mazar Road,Mirpur  1, Dhaka                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21, Shyamoli, Mirpur Road,Dhaka                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 32,R 3,Shamoli,Dhaka                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-670455     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-669981     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-670078     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-670454     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-651780     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-670664     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-670509     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-670701     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-671451     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-671214     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-671664     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-671715     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-671960     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-672014     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-671962     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-652915     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-637209     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-637113     </t>
   </si>
   <si>
     <t>19 Sep 2020</t>
   </si>
   <si>
+    <t>20 Aug 2020</t>
+  </si>
+  <si>
     <t>20 Sep 2020</t>
   </si>
   <si>
-    <t>05 Sep 2020</t>
+    <t>21 Sep 2020</t>
+  </si>
+  <si>
+    <t>22 Sep 2020</t>
+  </si>
+  <si>
+    <t>23 Aug 2020</t>
+  </si>
+  <si>
+    <t>24 Jul 2020</t>
   </si>
 </sst>
 </file>
@@ -689,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,19 +726,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -765,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19403.15</v>
+        <v>43641.41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -776,19 +758,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -797,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15222.91</v>
+        <v>25009.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -808,19 +790,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -829,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15186.18</v>
+        <v>15031.32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -837,22 +819,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -861,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15123.93</v>
+        <v>7417.14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -869,31 +851,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14062.05</v>
+        <v>3890.14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -901,31 +883,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>12440.81</v>
+        <v>25057.98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -933,31 +915,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>12098.36</v>
+        <v>15004.97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -965,31 +947,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>12063.71</v>
+        <v>9701.92</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -997,31 +979,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>12054.29</v>
+        <v>9904.530000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1029,31 +1011,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>12010.08</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1061,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>8471.16</v>
+        <v>1348.12</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1093,31 +1075,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>7112.89</v>
+        <v>68021.24000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1125,31 +1107,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>5000</v>
+        <v>20041.49</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1157,31 +1139,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>3413.15</v>
+        <v>9773.629999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1189,31 +1171,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
         <v>97</v>
       </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>30082.39</v>
+        <v>9727.209999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1221,31 +1203,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
         <v>98</v>
       </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
       <c r="H17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>30030.84</v>
+        <v>8661.709999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1253,31 +1235,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
       <c r="H18">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>24917.45</v>
+        <v>927.12</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1285,95 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>21361.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>19621.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>14963.8</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,277 +43,292 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010124115</t>
-  </si>
-  <si>
-    <t>12010111044</t>
-  </si>
-  <si>
-    <t>12010507910</t>
-  </si>
-  <si>
-    <t>12010506279</t>
-  </si>
-  <si>
-    <t>12010509931</t>
-  </si>
-  <si>
-    <t>12010506801</t>
-  </si>
-  <si>
-    <t>12010511138</t>
-  </si>
-  <si>
-    <t>12010146733</t>
-  </si>
-  <si>
-    <t>12010511290</t>
-  </si>
-  <si>
-    <t>12013131363</t>
-  </si>
-  <si>
-    <t>12010119102</t>
-  </si>
-  <si>
-    <t>12010503254</t>
-  </si>
-  <si>
-    <t>12010139784</t>
-  </si>
-  <si>
-    <t>12010510072</t>
-  </si>
-  <si>
-    <t>12010121022</t>
-  </si>
-  <si>
-    <t>12010511196</t>
-  </si>
-  <si>
-    <t>12010508615</t>
-  </si>
-  <si>
-    <t>Momotaz Pharmacy</t>
-  </si>
-  <si>
-    <t>Nurunnahar Pharmacy</t>
-  </si>
-  <si>
-    <t>Belal Medical Hall</t>
-  </si>
-  <si>
-    <t>Kidney Foundation</t>
-  </si>
-  <si>
-    <t>Ma Pharmacy</t>
-  </si>
-  <si>
-    <t>Tashrifa Pharmacy</t>
-  </si>
-  <si>
-    <t>Allar Dan Pharmacy</t>
-  </si>
-  <si>
-    <t>Medi Fair</t>
-  </si>
-  <si>
-    <t>Health Care Pharmacy</t>
-  </si>
-  <si>
-    <t>BAVS Metarnity Hospital</t>
-  </si>
-  <si>
-    <t>Bichitra Shawli</t>
-  </si>
-  <si>
-    <t>Nahin Medicine Corner</t>
-  </si>
-  <si>
-    <t>Crecent Medicine Corner</t>
-  </si>
-  <si>
-    <t>Yeasin Pharma</t>
-  </si>
-  <si>
-    <t>Global Specialized Hospital Ph</t>
-  </si>
-  <si>
-    <t>Bangladesh Specialized Hospita</t>
-  </si>
-  <si>
-    <t>Centre For Kidney Diseas And U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansar Camp Bus Stand,Mirpur 1,Dhaka                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satter Market,Dhaka Cantonment,Dhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoo Road,OGSB,Hospital,Mirpur 2,Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur 2,Dhaka                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">184 No Dhamal coat ,Showkhin Road,Dhaka                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur   10 A,Beside Aziz Medical Hall,Dhaka                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janata Housing Gate,Mirpur 1,Mirpur                         </t>
-  </si>
-  <si>
-    <t>H 01, Ln 25, Block C, Avenue 5,Near New Chandpur P, Mirpur 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananda Bazar,Shawrapara,Mirpur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beside of Mirpur Model ThanaMirpur 2,Mirpur                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7, Al  Noori Jama Mosjid,2nd Floor, Mirpur  1,Dhaka         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 4, Shenpara, Near Shibli Pharmacy,Mirpur  10,Dhaka        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">150 1  Ka, Shah Ali Bag,Crecent Homes,Mirpur  1             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 9, Block  F,joint Quater,Madrasha road, Mdpur,Dhaka       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mazar Road,Mirpur  1, Dhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21, Shyamoli, Mirpur Road,Dhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H 32,R 3,Shamoli,Dhaka                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670455     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669981     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670078     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670454     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-651780     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670664     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670509     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670701     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671451     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671214     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671664     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671715     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671960     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-672014     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-652915     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-637209     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-637113     </t>
-  </si>
-  <si>
-    <t>19 Sep 2020</t>
-  </si>
-  <si>
-    <t>20 Aug 2020</t>
-  </si>
-  <si>
-    <t>20 Sep 2020</t>
-  </si>
-  <si>
-    <t>21 Sep 2020</t>
-  </si>
-  <si>
-    <t>22 Sep 2020</t>
-  </si>
-  <si>
-    <t>23 Aug 2020</t>
-  </si>
-  <si>
-    <t>24 Jul 2020</t>
+    <t>44019002834</t>
+  </si>
+  <si>
+    <t>44019000824</t>
+  </si>
+  <si>
+    <t>44031000134</t>
+  </si>
+  <si>
+    <t>44031100530</t>
+  </si>
+  <si>
+    <t>44019004162</t>
+  </si>
+  <si>
+    <t>44037801293</t>
+  </si>
+  <si>
+    <t>44037800478</t>
+  </si>
+  <si>
+    <t>4401900919</t>
+  </si>
+  <si>
+    <t>44031100537</t>
+  </si>
+  <si>
+    <t>44019000722</t>
+  </si>
+  <si>
+    <t>4406114546</t>
+  </si>
+  <si>
+    <t>44019004696</t>
+  </si>
+  <si>
+    <t>4406114628</t>
+  </si>
+  <si>
+    <t>44019000677</t>
+  </si>
+  <si>
+    <t>4406114617</t>
+  </si>
+  <si>
+    <t>44019003356</t>
+  </si>
+  <si>
+    <t>44031000058</t>
+  </si>
+  <si>
+    <t>44019000267</t>
+  </si>
+  <si>
+    <t>44019003238</t>
+  </si>
+  <si>
+    <t>4401900160</t>
+  </si>
+  <si>
+    <t>Talha Pharmacy</t>
+  </si>
+  <si>
+    <t>Zaman Pharmacy</t>
+  </si>
+  <si>
+    <t>Lily Medical Hall</t>
+  </si>
+  <si>
+    <t>Sathi Pharmacy</t>
+  </si>
+  <si>
+    <t>Rifa Medicine Corner</t>
+  </si>
+  <si>
+    <t>Satata Pharmacy</t>
+  </si>
+  <si>
+    <t>Rizia Pharmacy</t>
+  </si>
+  <si>
+    <t>Joynub Pharmacy</t>
+  </si>
+  <si>
+    <t>Modern Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr. Kasem Ali Shaikh</t>
+  </si>
+  <si>
+    <t>Bala Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Fahad Pharmacy</t>
+  </si>
+  <si>
+    <t>Faisal Medical Hall</t>
+  </si>
+  <si>
+    <t>Mondol Pharmacy</t>
+  </si>
+  <si>
+    <t>Muzahid Chikitshalaya</t>
+  </si>
+  <si>
+    <t>Satkhira Pharmacy</t>
+  </si>
+  <si>
+    <t>Emam Medical Store</t>
+  </si>
+  <si>
+    <t>Fatema Medical</t>
+  </si>
+  <si>
+    <t>Dipty Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzapur Bazar Gobra Narail                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M M Ali Road Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thana Road Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhawdanga Bazar Satkhira                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baroypara Ghat Narail                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanpur Bus Stand Shyamnagor                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulashi Bazar Navaron                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolaroa Bazar Kolaroa Satkhira                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabderpur, Kotchand pur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C O Dr Nripen Bala Gazir Bazar Kaligonj                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashudebpur Bazar Jhikorgacha Jessore                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhopadi Bazar Kaligonj                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandartola,Moheshpur Jhenaidah                              </t>
+  </si>
+  <si>
+    <t>C O Akibul Islam Mangol Poita Bazar Kaligonj Mob 01726160151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monohorpur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni More Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khazura Bazar Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narkelbaria Bagharpara Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monoharpur Bazar Monirampur Jessore                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS76                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468068     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467814     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468150     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467899     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468049     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467802     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467756     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468637     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468565     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467866     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468575     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468554     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468367     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468296     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468301     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467947     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468872     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468972     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468924     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468903     </t>
+  </si>
+  <si>
+    <t>23 Sep 2020</t>
+  </si>
+  <si>
+    <t>24 Sep 2020</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -671,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,19 +741,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -747,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43641.41</v>
+        <v>49917.6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -758,19 +773,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -779,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>25009.3</v>
+        <v>19871.9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -790,19 +805,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -811,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15031.32</v>
+        <v>19682.85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -819,22 +834,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -843,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7417.14</v>
+        <v>10298.65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -851,31 +866,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3890.14</v>
+        <v>4757.29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -883,31 +898,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>25057.98</v>
+        <v>4000.07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -915,31 +930,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15004.97</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -947,22 +962,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -971,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>9701.92</v>
+        <v>29115.8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -979,31 +994,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>9904.530000000001</v>
+        <v>20467.73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1011,31 +1026,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5830</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1043,31 +1058,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1348.12</v>
+        <v>6057.98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1075,31 +1090,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>68021.24000000001</v>
+        <v>6039.96</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1107,31 +1122,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>20041.49</v>
+        <v>5984.5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1139,31 +1154,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9773.629999999999</v>
+        <v>5172.12</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1171,31 +1186,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>9727.209999999999</v>
+        <v>5170.03</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1203,31 +1218,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>8661.709999999999</v>
+        <v>500.21</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1235,31 +1250,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H18">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>927.12</v>
+        <v>176593.24</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1267,31 +1282,95 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>800</v>
+        <v>19779.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>11923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>10224.84</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,292 +43,289 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>44019002834</t>
-  </si>
-  <si>
-    <t>44019000824</t>
-  </si>
-  <si>
-    <t>44031000134</t>
-  </si>
-  <si>
-    <t>44031100530</t>
-  </si>
-  <si>
-    <t>44019004162</t>
-  </si>
-  <si>
-    <t>44037801293</t>
-  </si>
-  <si>
-    <t>44037800478</t>
-  </si>
-  <si>
-    <t>4401900919</t>
-  </si>
-  <si>
-    <t>44031100537</t>
-  </si>
-  <si>
-    <t>44019000722</t>
-  </si>
-  <si>
-    <t>4406114546</t>
-  </si>
-  <si>
-    <t>44019004696</t>
-  </si>
-  <si>
-    <t>4406114628</t>
-  </si>
-  <si>
-    <t>44019000677</t>
-  </si>
-  <si>
-    <t>4406114617</t>
-  </si>
-  <si>
-    <t>44019003356</t>
-  </si>
-  <si>
-    <t>44031000058</t>
-  </si>
-  <si>
-    <t>44019000267</t>
-  </si>
-  <si>
-    <t>44019003238</t>
-  </si>
-  <si>
-    <t>4401900160</t>
-  </si>
-  <si>
-    <t>Talha Pharmacy</t>
-  </si>
-  <si>
-    <t>Zaman Pharmacy</t>
-  </si>
-  <si>
-    <t>Lily Medical Hall</t>
-  </si>
-  <si>
-    <t>Sathi Pharmacy</t>
-  </si>
-  <si>
-    <t>Rifa Medicine Corner</t>
-  </si>
-  <si>
-    <t>Satata Pharmacy</t>
-  </si>
-  <si>
-    <t>Rizia Pharmacy</t>
-  </si>
-  <si>
-    <t>Joynub Pharmacy</t>
-  </si>
-  <si>
-    <t>Modern Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr. Kasem Ali Shaikh</t>
-  </si>
-  <si>
-    <t>Bala Pharmacy</t>
-  </si>
-  <si>
-    <t>Biswas Pharmacy</t>
-  </si>
-  <si>
-    <t>Fahad Pharmacy</t>
-  </si>
-  <si>
-    <t>Faisal Medical Hall</t>
-  </si>
-  <si>
-    <t>Mondol Pharmacy</t>
-  </si>
-  <si>
-    <t>Muzahid Chikitshalaya</t>
-  </si>
-  <si>
-    <t>Satkhira Pharmacy</t>
-  </si>
-  <si>
-    <t>Emam Medical Store</t>
-  </si>
-  <si>
-    <t>Fatema Medical</t>
-  </si>
-  <si>
-    <t>Dipty Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirzapur Bazar Gobra Narail                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M M Ali Road Jessore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thana Road Satkhira                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhawdanga Bazar Satkhira                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baroypara Ghat Narail                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khanpur Bus Stand Shyamnagor                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulashi Bazar Navaron                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolaroa Bazar Kolaroa Satkhira                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabderpur, Kotchand pur                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C O Dr Nripen Bala Gazir Bazar Kaligonj                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bashudebpur Bazar Jhikorgacha Jessore                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhopadi Bazar Kaligonj                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandartola,Moheshpur Jhenaidah                              </t>
-  </si>
-  <si>
-    <t>C O Akibul Islam Mangol Poita Bazar Kaligonj Mob 01726160151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monohorpur Jessore                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboni More Satkhira                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khazura Bazar Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narkelbaria Bagharpara Jessore                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monoharpur Bazar Monirampur Jessore                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS65                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS102                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS93                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS94                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS76                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468068     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467814     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468150     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467899     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468049     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467802     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467756     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468637     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468565     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467866     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468575     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468554     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468367     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468296     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468301     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467947     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468872     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468972     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468924     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468903     </t>
-  </si>
-  <si>
-    <t>23 Sep 2020</t>
-  </si>
-  <si>
-    <t>24 Sep 2020</t>
-  </si>
-  <si>
-    <t>25 Sep 2020</t>
+    <t>90000001687</t>
+  </si>
+  <si>
+    <t>27012101975</t>
+  </si>
+  <si>
+    <t>27012110090</t>
+  </si>
+  <si>
+    <t>90000005880</t>
+  </si>
+  <si>
+    <t>27012111846</t>
+  </si>
+  <si>
+    <t>27012100205</t>
+  </si>
+  <si>
+    <t>27012120815</t>
+  </si>
+  <si>
+    <t>27012111025</t>
+  </si>
+  <si>
+    <t>27012100641</t>
+  </si>
+  <si>
+    <t>27012211745</t>
+  </si>
+  <si>
+    <t>27012120522</t>
+  </si>
+  <si>
+    <t>27012121271</t>
+  </si>
+  <si>
+    <t>27012111553</t>
+  </si>
+  <si>
+    <t>27012100394</t>
+  </si>
+  <si>
+    <t>27012102145</t>
+  </si>
+  <si>
+    <t>27012111459</t>
+  </si>
+  <si>
+    <t>27012100396</t>
+  </si>
+  <si>
+    <t>27061000609</t>
+  </si>
+  <si>
+    <t>27012101595</t>
+  </si>
+  <si>
+    <t>27012112574</t>
+  </si>
+  <si>
+    <t>Mintu Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Sonagazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Modina Medical Hall</t>
+  </si>
+  <si>
+    <t>Rawshon Pharmacy</t>
+  </si>
+  <si>
+    <t>Green Medical Hall</t>
+  </si>
+  <si>
+    <t>Azim Pharmicy</t>
+  </si>
+  <si>
+    <t>Boloram Pharmacy</t>
+  </si>
+  <si>
+    <t>Insaf Medicine Corner</t>
+  </si>
+  <si>
+    <t>Fatema Pharmacy</t>
+  </si>
+  <si>
+    <t>Morium Medical Hall</t>
+  </si>
+  <si>
+    <t>Day Night Medical Hall</t>
+  </si>
+  <si>
+    <t>Mita Medical Hall</t>
+  </si>
+  <si>
+    <t>Midway Pharmacy</t>
+  </si>
+  <si>
+    <t>Sayma Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarker Pharmacy</t>
+  </si>
+  <si>
+    <t>Ratna Medical Hall</t>
+  </si>
+  <si>
+    <t>Uday Pharmacy</t>
+  </si>
+  <si>
+    <t>Sufia Medical Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khagrabil                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramgor Bazar Rahghor Khagrachori                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takia Road Sonagazi                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K.M. Hat,Fazilpur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohurigonj                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolipara Ramgorh Khagrachori                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaiyara Rastar More                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quddis Munshi Sonagazi Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korerhat Road Baraiyerhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonaipol Ramgor                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottoli, Fazilpur Feni                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karerhat Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagalnaya Feni                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trunk Road Fefi                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdhuryhat Basurhat Noakhali                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silonia Bazar Dagonbhuiyan Feni                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashraf Medical Market Feni                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdary Bazar Chawdagram                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Road Chagolnaya                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosque Road Beker Bazar Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK45                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK66                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349199     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349291     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349163     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349326     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349349     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349198     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349346     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349344     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349178     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349231     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349179     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349289     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349668     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349406     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349628     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349391     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349463     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349627     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349552     </t>
+  </si>
+  <si>
+    <t>26 Sep 2020</t>
+  </si>
+  <si>
+    <t>27 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -744,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
@@ -762,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>49917.6</v>
+        <v>30013.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -776,10 +773,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -794,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19871.9</v>
+        <v>20863.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -808,10 +805,10 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>84</v>
@@ -826,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>19682.85</v>
+        <v>15024.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -840,10 +837,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>85</v>
@@ -858,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10298.65</v>
+        <v>10041.01</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -872,10 +869,10 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -890,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4757.29</v>
+        <v>10000.01</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -904,10 +901,10 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
@@ -922,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4000.07</v>
+        <v>9991.59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -939,7 +936,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -954,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3000</v>
+        <v>9982.68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -971,22 +968,22 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>29115.8</v>
+        <v>9972.389999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1003,22 +1000,22 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>20467.73</v>
+        <v>9942.610000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1035,22 +1032,22 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6500</v>
+        <v>9894.41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1067,22 +1064,22 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6057.98</v>
+        <v>7883.65</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1093,28 +1090,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6039.96</v>
+        <v>5080.53</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1125,13 +1122,13 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>94</v>
@@ -1146,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5984.5</v>
+        <v>23225.79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1157,13 +1154,13 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1178,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5172.12</v>
+        <v>19998.37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1189,13 +1186,13 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
@@ -1210,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5170.03</v>
+        <v>15052.62</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1221,13 +1218,13 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
@@ -1242,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>500.21</v>
+        <v>14983.71</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1253,28 +1250,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>176593.24</v>
+        <v>14426.27</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1285,7 +1282,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
@@ -1297,16 +1294,16 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>19779.2</v>
+        <v>12999.68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1317,28 +1314,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>11923</v>
+        <v>10011.18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1349,28 +1346,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21">
         <v>30</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>10224.84</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,289 +43,313 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>90000001687</t>
-  </si>
-  <si>
-    <t>27012101975</t>
-  </si>
-  <si>
-    <t>27012110090</t>
-  </si>
-  <si>
-    <t>90000005880</t>
-  </si>
-  <si>
-    <t>27012111846</t>
-  </si>
-  <si>
-    <t>27012100205</t>
-  </si>
-  <si>
-    <t>27012120815</t>
-  </si>
-  <si>
-    <t>27012111025</t>
-  </si>
-  <si>
-    <t>27012100641</t>
-  </si>
-  <si>
-    <t>27012211745</t>
-  </si>
-  <si>
-    <t>27012120522</t>
-  </si>
-  <si>
-    <t>27012121271</t>
-  </si>
-  <si>
-    <t>27012111553</t>
-  </si>
-  <si>
-    <t>27012100394</t>
-  </si>
-  <si>
-    <t>27012102145</t>
-  </si>
-  <si>
-    <t>27012111459</t>
-  </si>
-  <si>
-    <t>27012100396</t>
-  </si>
-  <si>
-    <t>27061000609</t>
-  </si>
-  <si>
-    <t>27012101595</t>
-  </si>
-  <si>
-    <t>27012112574</t>
-  </si>
-  <si>
-    <t>Mintu Medical Hall</t>
-  </si>
-  <si>
-    <t>Maa Medical Hall</t>
-  </si>
-  <si>
-    <t>Sonagazi Medical Hall</t>
-  </si>
-  <si>
-    <t>Modina Medical Hall</t>
-  </si>
-  <si>
-    <t>Rawshon Pharmacy</t>
-  </si>
-  <si>
-    <t>Green Medical Hall</t>
-  </si>
-  <si>
-    <t>Azim Pharmicy</t>
-  </si>
-  <si>
-    <t>Boloram Pharmacy</t>
-  </si>
-  <si>
-    <t>Insaf Medicine Corner</t>
-  </si>
-  <si>
-    <t>Fatema Pharmacy</t>
-  </si>
-  <si>
-    <t>Morium Medical Hall</t>
-  </si>
-  <si>
-    <t>Day Night Medical Hall</t>
-  </si>
-  <si>
-    <t>Mita Medical Hall</t>
-  </si>
-  <si>
-    <t>Midway Pharmacy</t>
-  </si>
-  <si>
-    <t>Sayma Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarker Pharmacy</t>
-  </si>
-  <si>
-    <t>Ratna Medical Hall</t>
-  </si>
-  <si>
-    <t>Uday Pharmacy</t>
-  </si>
-  <si>
-    <t>Sufia Medical Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khagrabil                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramgor Bazar Rahghor Khagrachori                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takia Road Sonagazi                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K.M. Hat,Fazilpur                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohurigonj                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolipara Ramgorh Khagrachori                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khaiyara Rastar More                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quddis Munshi Sonagazi Feni                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korerhat Road Baraiyerhat                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonaipol Ramgor                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottoli, Fazilpur Feni                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karerhat Bazar                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhagalnaya Feni                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trunk Road Fefi                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowdhuryhat Basurhat Noakhali                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silonia Bazar Dagonbhuiyan Feni                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashraf Medical Market Feni                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowdary Bazar Chawdagram                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">College Road Chagolnaya                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosque Road Beker Bazar Feni                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK46                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK45                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK66                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349199     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349291     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349163     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349326     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349349     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349198     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349346     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349344     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349178     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349231     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349179     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349289     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349668     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349406     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349628     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349555     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349391     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349463     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349627     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-349552     </t>
-  </si>
-  <si>
-    <t>26 Sep 2020</t>
-  </si>
-  <si>
-    <t>27 Sep 2020</t>
+    <t>12010511579</t>
+  </si>
+  <si>
+    <t>12010114180</t>
+  </si>
+  <si>
+    <t>12010507520</t>
+  </si>
+  <si>
+    <t>1201500479</t>
+  </si>
+  <si>
+    <t>12010124281</t>
+  </si>
+  <si>
+    <t>12010509190</t>
+  </si>
+  <si>
+    <t>12010139816</t>
+  </si>
+  <si>
+    <t>12010508882</t>
+  </si>
+  <si>
+    <t>90000005023</t>
+  </si>
+  <si>
+    <t>12010144629</t>
+  </si>
+  <si>
+    <t>12010127646</t>
+  </si>
+  <si>
+    <t>12010126415</t>
+  </si>
+  <si>
+    <t>12010126512</t>
+  </si>
+  <si>
+    <t>12010505777</t>
+  </si>
+  <si>
+    <t>12010506884</t>
+  </si>
+  <si>
+    <t>12010508986</t>
+  </si>
+  <si>
+    <t>12010146583</t>
+  </si>
+  <si>
+    <t>12010508273</t>
+  </si>
+  <si>
+    <t>12010507121</t>
+  </si>
+  <si>
+    <t>Ark Hospital Ltd</t>
+  </si>
+  <si>
+    <t>Ahmed Medicine Centre</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Babul Pharmacy</t>
+  </si>
+  <si>
+    <t>Ashiyan Hospital Pharmacy</t>
+  </si>
+  <si>
+    <t>Nastrum Hospital</t>
+  </si>
+  <si>
+    <t>Nasir Drug House</t>
+  </si>
+  <si>
+    <t>Prime Bank Eye Hospital</t>
+  </si>
+  <si>
+    <t>Chader Hasi Pharmacy</t>
+  </si>
+  <si>
+    <t>Sikder Pharmacy</t>
+  </si>
+  <si>
+    <t>Rowshanara Pharmacy</t>
+  </si>
+  <si>
+    <t>Islamia Eye Hospital Instituti</t>
+  </si>
+  <si>
+    <t>Naza Pharma</t>
+  </si>
+  <si>
+    <t>Raz Pharmacy</t>
+  </si>
+  <si>
+    <t>Basundhara Eye Hospital And Re</t>
+  </si>
+  <si>
+    <t>Labaid Specialized Hospital</t>
+  </si>
+  <si>
+    <t>Medicine Point</t>
+  </si>
+  <si>
+    <t>Adorsho Dental Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near CNG PumpShah Kabir Mazar RoadUttarkhan Uttara          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 71 1 Road 15 ANear Shankar Bus StandDhaka             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infront of BMCHDhanmondiSanker                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 Elephant RoadCompath Diagnostic Centre                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashiyan GroupBorua BazarKhilkhet Dhaka                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Building RoadSector 06Uttara                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dour Near Police Station Uttara                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanmondi R 15Dhaka                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amtola,Dakkhinkhan,Uttara                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 2 SKRoad KachabazarPoolpar Rayer BazarDhaka              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R 3 Jahangir Alam RoadSunibir HousingDhaka                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sher E Bangla NagarMonipuriparaDhaka 1215                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azampur Kancha BazarUttaraDhaka                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NilkhetRakib Plaza GoliDhaka                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigatola Natun Rasta Dhaka                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot 474 Block D BasundharaDhaka                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor Pharmacy House 6 Road 4Dhanmondi Dhaka              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">169 South Para MohakhaliDhaka                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razabari Chowrasta UttaraDhaka                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1030984    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1043357    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1056361    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1056317    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1032333    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1031910    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1057087    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1032076    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1056997    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1056853    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1056717    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1032350    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-907271     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1057890    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1057689    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1057377    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1033704    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-909753     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1058855    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1058721    </t>
+  </si>
+  <si>
+    <t>02 Sep 2020</t>
+  </si>
+  <si>
+    <t>17 Sep 2020</t>
+  </si>
+  <si>
+    <t>02 Oct 2020</t>
+  </si>
+  <si>
+    <t>03 Sep 2020</t>
+  </si>
+  <si>
+    <t>03 Oct 2020</t>
+  </si>
+  <si>
+    <t>22 Mar 2020</t>
+  </si>
+  <si>
+    <t>04 Oct 2020</t>
+  </si>
+  <si>
+    <t>05 Sep 2020</t>
+  </si>
+  <si>
+    <t>24 Mar 2020</t>
+  </si>
+  <si>
+    <t>05 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -738,13 +762,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>82</v>
@@ -753,13 +777,13 @@
         <v>102</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30013.9</v>
+        <v>58910.58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -770,28 +794,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20863.85</v>
+        <v>12923.44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -802,19 +826,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -823,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15024.5</v>
+        <v>10462.34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -834,19 +858,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -855,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10041.01</v>
+        <v>9352.41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -866,28 +890,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>10000.01</v>
+        <v>40787.19</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -898,28 +922,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>9991.59</v>
+        <v>31273.8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -930,28 +954,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>9982.68</v>
+        <v>14963.12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -962,10 +986,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>72</v>
@@ -974,16 +998,16 @@
         <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>9972.389999999999</v>
+        <v>9669.6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -994,10 +1018,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
@@ -1006,16 +1030,16 @@
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>9942.610000000001</v>
+        <v>9208.07</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1026,28 +1050,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>9894.41</v>
+        <v>9167.65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1058,28 +1082,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>7883.65</v>
+        <v>8337.299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1087,31 +1111,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5080.53</v>
+        <v>6081.69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1119,31 +1143,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>23225.79</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1151,31 +1175,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>19998.37</v>
+        <v>15105.36</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1183,13 +1207,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
@@ -1198,16 +1222,16 @@
         <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>15052.62</v>
+        <v>14345.9</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1215,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>78</v>
@@ -1230,16 +1254,16 @@
         <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>14983.71</v>
+        <v>8025.18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1247,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1262,16 +1286,16 @@
         <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>14426.27</v>
+        <v>39462.95</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1279,13 +1303,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
@@ -1294,16 +1318,16 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>12999.68</v>
+        <v>17579</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1311,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
@@ -1326,16 +1350,16 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>10011.18</v>
+        <v>17531.86</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1343,31 +1367,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H21">
         <v>30</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>10000</v>
+        <v>5078.34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,313 +43,307 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010511579</t>
-  </si>
-  <si>
-    <t>12010114180</t>
-  </si>
-  <si>
-    <t>12010507520</t>
-  </si>
-  <si>
-    <t>1201500479</t>
-  </si>
-  <si>
-    <t>12010124281</t>
-  </si>
-  <si>
-    <t>12010509190</t>
-  </si>
-  <si>
-    <t>12010139816</t>
-  </si>
-  <si>
-    <t>12010508882</t>
-  </si>
-  <si>
-    <t>90000005023</t>
-  </si>
-  <si>
-    <t>12010144629</t>
-  </si>
-  <si>
-    <t>12010127646</t>
-  </si>
-  <si>
-    <t>12010126415</t>
-  </si>
-  <si>
-    <t>12010126512</t>
-  </si>
-  <si>
-    <t>12010505777</t>
-  </si>
-  <si>
-    <t>12010506884</t>
-  </si>
-  <si>
-    <t>12010508986</t>
-  </si>
-  <si>
-    <t>12010146583</t>
-  </si>
-  <si>
-    <t>12010508273</t>
-  </si>
-  <si>
-    <t>12010507121</t>
-  </si>
-  <si>
-    <t>Ark Hospital Ltd</t>
-  </si>
-  <si>
-    <t>Ahmed Medicine Centre</t>
-  </si>
-  <si>
-    <t>Bismillah Pharmacy</t>
-  </si>
-  <si>
-    <t>Babul Pharmacy</t>
-  </si>
-  <si>
-    <t>Ashiyan Hospital Pharmacy</t>
-  </si>
-  <si>
-    <t>Nastrum Hospital</t>
-  </si>
-  <si>
-    <t>Nasir Drug House</t>
-  </si>
-  <si>
-    <t>Prime Bank Eye Hospital</t>
-  </si>
-  <si>
-    <t>Chader Hasi Pharmacy</t>
-  </si>
-  <si>
-    <t>Sikder Pharmacy</t>
-  </si>
-  <si>
-    <t>Rowshanara Pharmacy</t>
-  </si>
-  <si>
-    <t>Islamia Eye Hospital Instituti</t>
-  </si>
-  <si>
-    <t>Naza Pharma</t>
-  </si>
-  <si>
-    <t>Raz Pharmacy</t>
-  </si>
-  <si>
-    <t>Basundhara Eye Hospital And Re</t>
-  </si>
-  <si>
-    <t>Labaid Specialized Hospital</t>
-  </si>
-  <si>
-    <t>Medicine Point</t>
-  </si>
-  <si>
-    <t>Adorsho Dental Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near CNG PumpShah Kabir Mazar RoadUttarkhan Uttara          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 71 1 Road 15 ANear Shankar Bus StandDhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infront of BMCHDhanmondiSanker                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">136 Elephant RoadCompath Diagnostic Centre                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashiyan GroupBorua BazarKhilkhet Dhaka                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Building RoadSector 06Uttara                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dour Near Police Station Uttara                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi R 15Dhaka                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amtola,Dakkhinkhan,Uttara                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97 2 SKRoad KachabazarPoolpar Rayer BazarDhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 3 Jahangir Alam RoadSunibir HousingDhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sher E Bangla NagarMonipuriparaDhaka 1215                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kancha BazarUttaraDhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NilkhetRakib Plaza GoliDhaka                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigatola Natun Rasta Dhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plot 474 Block D BasundharaDhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outdoor Pharmacy House 6 Road 4Dhanmondi Dhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">169 South Para MohakhaliDhaka                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razabari Chowrasta UttaraDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1030984    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1043357    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056361    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056317    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1032333    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1031910    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057087    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1032076    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056997    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056853    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056717    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1032350    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-907271     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057890    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057689    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057377    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1033704    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-909753     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1058855    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1058721    </t>
-  </si>
-  <si>
-    <t>02 Sep 2020</t>
-  </si>
-  <si>
-    <t>17 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Oct 2020</t>
-  </si>
-  <si>
-    <t>03 Sep 2020</t>
-  </si>
-  <si>
-    <t>03 Oct 2020</t>
-  </si>
-  <si>
-    <t>22 Mar 2020</t>
+    <t>33091136125</t>
+  </si>
+  <si>
+    <t>33091002343</t>
+  </si>
+  <si>
+    <t>90000033574</t>
+  </si>
+  <si>
+    <t>33091134971</t>
+  </si>
+  <si>
+    <t>90000035383</t>
+  </si>
+  <si>
+    <t>33091101994</t>
+  </si>
+  <si>
+    <t>33091133927</t>
+  </si>
+  <si>
+    <t>33091132085</t>
+  </si>
+  <si>
+    <t>33091000136</t>
+  </si>
+  <si>
+    <t>33091134648</t>
+  </si>
+  <si>
+    <t>33091107436</t>
+  </si>
+  <si>
+    <t>33091107094</t>
+  </si>
+  <si>
+    <t>90000009359</t>
+  </si>
+  <si>
+    <t>33091135493</t>
+  </si>
+  <si>
+    <t>90000018203</t>
+  </si>
+  <si>
+    <t>33091100545</t>
+  </si>
+  <si>
+    <t>33091133234</t>
+  </si>
+  <si>
+    <t>33091135066</t>
+  </si>
+  <si>
+    <t>33091133591</t>
+  </si>
+  <si>
+    <t>90000031807</t>
+  </si>
+  <si>
+    <t>Rahmot Pharmacy</t>
+  </si>
+  <si>
+    <t>Rubel Medical Store</t>
+  </si>
+  <si>
+    <t>Razzak Medical Store</t>
+  </si>
+  <si>
+    <t>Siddik Pharmacy 2</t>
+  </si>
+  <si>
+    <t>SHATHI MEDICAL STORE</t>
+  </si>
+  <si>
+    <t>Al Amin Pharmacy</t>
+  </si>
+  <si>
+    <t>Fahima Pharmacy</t>
+  </si>
+  <si>
+    <t>Star Pharma</t>
+  </si>
+  <si>
+    <t>Bogra Clinic</t>
+  </si>
+  <si>
+    <t>Tapon Pharmecy</t>
+  </si>
+  <si>
+    <t>Ashim Medical Store</t>
+  </si>
+  <si>
+    <t>Mehedi Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhai Bhai Pharmacy </t>
+  </si>
+  <si>
+    <t>Ataur Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah pharmacy</t>
+  </si>
+  <si>
+    <t>Shuvo Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Lion Pharmacy</t>
+  </si>
+  <si>
+    <t>Rakib Pharmacy</t>
+  </si>
+  <si>
+    <t>Amar Desh Medicine Corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patgram Patgram                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand Nageswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulchari Bazar,Saghata                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouro Market Nagerswari Kurigram                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAZIR BAZAR, GAIBANDHA                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhitorbond Bazar Nageswari                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakirhat Nagerswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap Medical More Rangpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalmonirhat Hospital Road Lalmonirhat                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazirhat Lalmonirhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghogodoho Bazar Kurigram Kurigram                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanerhat On tha way of Mothergonj Pirgonj                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaligonj Bazar.Lalmonirhat.                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jatrapur Kurigara                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochubari hat,Bodargong                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilmari                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunaigach Ulipur                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramkhana Nakargonj Burungamari Kurigram                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathgora Bazar Bamondanga Sundorgonj                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap Medica More,Rangpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473197     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-472999     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-472789     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473152     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473048     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473198     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473202     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473561     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-458827     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473570     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473527     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473655     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473564     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473518     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473290     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474038     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474008     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474290     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474224     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-459120     </t>
   </si>
   <si>
     <t>04 Oct 2020</t>
   </si>
   <si>
+    <t>05 Oct 2020</t>
+  </si>
+  <si>
     <t>05 Sep 2020</t>
   </si>
   <si>
-    <t>24 Mar 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -762,28 +756,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>58910.58</v>
+        <v>42474.36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -794,28 +788,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12923.44</v>
+        <v>14981.53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -826,19 +820,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -847,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10462.34</v>
+        <v>9790.09</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -858,19 +852,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -879,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9352.41</v>
+        <v>7897.58</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -890,28 +884,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>105</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>40787.19</v>
+        <v>5889.85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -922,28 +916,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>105</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>31273.8</v>
+        <v>5018.84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -954,28 +948,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14963.12</v>
+        <v>5018.05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -986,28 +980,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>9669.6</v>
+        <v>39990.62</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1018,28 +1012,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>9208.07</v>
+        <v>16817</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1050,16 +1044,16 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
@@ -1071,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>9167.65</v>
+        <v>14982.65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1082,16 +1076,16 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
         <v>106</v>
@@ -1103,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>8337.299999999999</v>
+        <v>14935.11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1111,31 +1105,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6081.69</v>
+        <v>11989.7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1143,31 +1137,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>310</v>
+        <v>11957.35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1175,31 +1169,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>15105.36</v>
+        <v>5000.58</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1207,31 +1201,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>14345.9</v>
+        <v>4850.36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1239,19 +1233,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
         <v>108</v>
@@ -1263,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>8025.18</v>
+        <v>20031.47</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1271,31 +1265,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>39462.95</v>
+        <v>16875.75</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1303,31 +1297,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>17579</v>
+        <v>15020.54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1335,31 +1329,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>17531.86</v>
+        <v>10864.06</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1367,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>5078.34</v>
+        <v>10031.24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,307 +43,301 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>33091136125</t>
-  </si>
-  <si>
-    <t>33091002343</t>
-  </si>
-  <si>
-    <t>90000033574</t>
-  </si>
-  <si>
-    <t>33091134971</t>
-  </si>
-  <si>
-    <t>90000035383</t>
-  </si>
-  <si>
-    <t>33091101994</t>
-  </si>
-  <si>
-    <t>33091133927</t>
-  </si>
-  <si>
-    <t>33091132085</t>
-  </si>
-  <si>
-    <t>33091000136</t>
-  </si>
-  <si>
-    <t>33091134648</t>
-  </si>
-  <si>
-    <t>33091107436</t>
-  </si>
-  <si>
-    <t>33091107094</t>
-  </si>
-  <si>
-    <t>90000009359</t>
-  </si>
-  <si>
-    <t>33091135493</t>
-  </si>
-  <si>
-    <t>90000018203</t>
-  </si>
-  <si>
-    <t>33091100545</t>
-  </si>
-  <si>
-    <t>33091133234</t>
-  </si>
-  <si>
-    <t>33091135066</t>
-  </si>
-  <si>
-    <t>33091133591</t>
-  </si>
-  <si>
-    <t>90000031807</t>
-  </si>
-  <si>
-    <t>Rahmot Pharmacy</t>
-  </si>
-  <si>
-    <t>Rubel Medical Store</t>
-  </si>
-  <si>
-    <t>Razzak Medical Store</t>
-  </si>
-  <si>
-    <t>Siddik Pharmacy 2</t>
-  </si>
-  <si>
-    <t>SHATHI MEDICAL STORE</t>
+    <t>51051100266</t>
+  </si>
+  <si>
+    <t>51051000211</t>
+  </si>
+  <si>
+    <t>51052000160</t>
+  </si>
+  <si>
+    <t>51052141755</t>
+  </si>
+  <si>
+    <t>51052100747</t>
+  </si>
+  <si>
+    <t>51052149935</t>
+  </si>
+  <si>
+    <t>51052108653</t>
+  </si>
+  <si>
+    <t>51051100181</t>
+  </si>
+  <si>
+    <t>51011136342</t>
+  </si>
+  <si>
+    <t>51052138351</t>
+  </si>
+  <si>
+    <t>51052149846</t>
+  </si>
+  <si>
+    <t>51051001574</t>
+  </si>
+  <si>
+    <t>51011119553</t>
+  </si>
+  <si>
+    <t>51052104170</t>
+  </si>
+  <si>
+    <t>51011110172</t>
+  </si>
+  <si>
+    <t>51052134724</t>
+  </si>
+  <si>
+    <t>51011136661</t>
+  </si>
+  <si>
+    <t>51052149103</t>
+  </si>
+  <si>
+    <t>51051001601</t>
+  </si>
+  <si>
+    <t>90000027866</t>
+  </si>
+  <si>
+    <t>Rahman Pharmacy</t>
+  </si>
+  <si>
+    <t>Chowdury Drug House</t>
+  </si>
+  <si>
+    <t>Mitali Medical Hall</t>
+  </si>
+  <si>
+    <t>Topical Drug House</t>
+  </si>
+  <si>
+    <t>Rashed Medical Hall</t>
+  </si>
+  <si>
+    <t>Debnath Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>New Medical Hall</t>
+  </si>
+  <si>
+    <t>Fatema Pharmacy</t>
+  </si>
+  <si>
+    <t>M S Sayed Medical Hall</t>
+  </si>
+  <si>
+    <t>Al Amin Medical Hall</t>
+  </si>
+  <si>
+    <t>Morshed Pharmacy</t>
+  </si>
+  <si>
+    <t>Usha Pahrmacy</t>
+  </si>
+  <si>
+    <t>Nahar Medical Hall</t>
   </si>
   <si>
     <t>Al Amin Pharmacy</t>
   </si>
   <si>
-    <t>Fahima Pharmacy</t>
-  </si>
-  <si>
-    <t>Star Pharma</t>
-  </si>
-  <si>
-    <t>Bogra Clinic</t>
-  </si>
-  <si>
-    <t>Tapon Pharmecy</t>
-  </si>
-  <si>
-    <t>Ashim Medical Store</t>
-  </si>
-  <si>
-    <t>Mehedi Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhai Bhai Pharmacy </t>
-  </si>
-  <si>
-    <t>Ataur Pharmacy</t>
-  </si>
-  <si>
-    <t>Bismillah pharmacy</t>
-  </si>
-  <si>
-    <t>Shuvo Pharmacy</t>
-  </si>
-  <si>
-    <t>Maa Pharmacy</t>
-  </si>
-  <si>
-    <t>Lion Pharmacy</t>
-  </si>
-  <si>
-    <t>Rakib Pharmacy</t>
-  </si>
-  <si>
-    <t>Amar Desh Medicine Corner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patgram Patgram                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand Nageswari                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulchari Bazar,Saghata                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouro Market Nagerswari Kurigram                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAZIR BAZAR, GAIBANDHA                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhitorbond Bazar Nageswari                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakirhat Nagerswari                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhap Medical More Rangpur                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalmonirhat Hospital Road Lalmonirhat                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazirhat Lalmonirhat                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghogodoho Bazar Kurigram Kurigram                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanerhat On tha way of Mothergonj Pirgonj                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaligonj Bazar.Lalmonirhat.                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jatrapur Kurigara                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kochubari hat,Bodargong                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilmari                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunaigach Ulipur                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramkhana Nakargonj Burungamari Kurigram                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kathgora Bazar Bamondanga Sundorgonj                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhap Medica More,Rangpur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK94                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK102                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473197     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-472999     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-472789     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473152     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473048     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473198     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473202     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473561     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-458827     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473570     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473527     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473655     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473564     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473518     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473290     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474038     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474008     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474290     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474224     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-459120     </t>
-  </si>
-  <si>
-    <t>04 Oct 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
-  </si>
-  <si>
-    <t>05 Sep 2020</t>
-  </si>
-  <si>
-    <t>06 Oct 2020</t>
-  </si>
-  <si>
-    <t>06 Sep 2020</t>
+    <t>Nupur Medical Hall</t>
+  </si>
+  <si>
+    <t>Mim Pharmacy</t>
+  </si>
+  <si>
+    <t>Surja Pharmacy</t>
+  </si>
+  <si>
+    <t>Rubina Drug House</t>
+  </si>
+  <si>
+    <t>Talukder Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Gate Sadar Road Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munsir Grage Bogura Road Barisal                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muguria Lalmohan Bhola                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boalia Bakerganj Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadium Market Bandh Road Barisal                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakerganj Bakerganj Barisal                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koralia Manpura Bhola                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawkhali Pirojpur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekerhat                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awar Bazar Banaripara Barisal                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razapur Bazar Rajapur Jhalokathi                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guthia Babuganj Barisal                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalirpar Tekerhat                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisharkandi Bazer Hartapara Banaripara                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puran Bazar Madaripur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakutia Barisal                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaleker Hat Kalkini Madaripur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paisherhat                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Bhola                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akota Bazar, Hijla, Barisal                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG36                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606466     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606499     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606644     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606729     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606478     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606728     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606699     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607242     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607106     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607112     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607031     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607227     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606757     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607127     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607041     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606992     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607208     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607269     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607834     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607774     </t>
+  </si>
+  <si>
+    <t>06 Dec 2020</t>
+  </si>
+  <si>
+    <t>07 Dec 2020</t>
+  </si>
+  <si>
+    <t>08 Dec 2020</t>
   </si>
 </sst>
 </file>
@@ -777,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>42474.36</v>
+        <v>10002.79</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14981.53</v>
+        <v>10001.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -841,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9790.09</v>
+        <v>9984.549999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -858,7 +852,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
@@ -873,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7897.58</v>
+        <v>9786.17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -890,7 +884,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
@@ -905,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5889.85</v>
+        <v>6974.23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -922,7 +916,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>90</v>
@@ -937,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5018.84</v>
+        <v>5004.29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -954,7 +948,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5018.05</v>
+        <v>4994.58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -986,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -1001,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>39990.62</v>
+        <v>18764.18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1018,22 +1012,22 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>16817</v>
+        <v>14973.92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1050,7 +1044,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
@@ -1065,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>14982.65</v>
+        <v>10094.38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1082,7 +1076,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -1097,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>14935.11</v>
+        <v>10090.74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1114,7 +1108,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
@@ -1129,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>11989.7</v>
+        <v>10043.47</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1161,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>11957.35</v>
+        <v>9995.440000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1193,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5000.58</v>
+        <v>8672.82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1225,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4850.36</v>
+        <v>8025.16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1248,16 +1242,16 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>20031.47</v>
+        <v>7946.19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1280,16 +1274,16 @@
         <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>16875.75</v>
+        <v>5510.38</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1312,16 +1306,16 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>15020.54</v>
+        <v>4943.96</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1344,7 +1338,7 @@
         <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20">
         <v>30</v>
@@ -1353,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>10864.06</v>
+        <v>74294.59</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1376,16 +1370,16 @@
         <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>10031.24</v>
+        <v>25009.7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,301 +43,298 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>51051100266</t>
-  </si>
-  <si>
-    <t>51051000211</t>
-  </si>
-  <si>
-    <t>51052000160</t>
-  </si>
-  <si>
-    <t>51052141755</t>
-  </si>
-  <si>
-    <t>51052100747</t>
-  </si>
-  <si>
-    <t>51052149935</t>
-  </si>
-  <si>
-    <t>51052108653</t>
-  </si>
-  <si>
-    <t>51051100181</t>
-  </si>
-  <si>
-    <t>51011136342</t>
-  </si>
-  <si>
-    <t>51052138351</t>
-  </si>
-  <si>
-    <t>51052149846</t>
-  </si>
-  <si>
-    <t>51051001574</t>
-  </si>
-  <si>
-    <t>51011119553</t>
-  </si>
-  <si>
-    <t>51052104170</t>
-  </si>
-  <si>
-    <t>51011110172</t>
-  </si>
-  <si>
-    <t>51052134724</t>
-  </si>
-  <si>
-    <t>51011136661</t>
-  </si>
-  <si>
-    <t>51052149103</t>
-  </si>
-  <si>
-    <t>51051001601</t>
-  </si>
-  <si>
-    <t>90000027866</t>
-  </si>
-  <si>
-    <t>Rahman Pharmacy</t>
-  </si>
-  <si>
-    <t>Chowdury Drug House</t>
-  </si>
-  <si>
-    <t>Mitali Medical Hall</t>
-  </si>
-  <si>
-    <t>Topical Drug House</t>
-  </si>
-  <si>
-    <t>Rashed Medical Hall</t>
-  </si>
-  <si>
-    <t>Debnath Medical Hall</t>
-  </si>
-  <si>
-    <t>Maa Medical Hall</t>
-  </si>
-  <si>
-    <t>New Medical Hall</t>
-  </si>
-  <si>
-    <t>Fatema Pharmacy</t>
-  </si>
-  <si>
-    <t>M S Sayed Medical Hall</t>
-  </si>
-  <si>
-    <t>Al Amin Medical Hall</t>
-  </si>
-  <si>
-    <t>Morshed Pharmacy</t>
-  </si>
-  <si>
-    <t>Usha Pahrmacy</t>
-  </si>
-  <si>
-    <t>Nahar Medical Hall</t>
-  </si>
-  <si>
-    <t>Al Amin Pharmacy</t>
-  </si>
-  <si>
-    <t>Nupur Medical Hall</t>
-  </si>
-  <si>
-    <t>Mim Pharmacy</t>
-  </si>
-  <si>
-    <t>Surja Pharmacy</t>
-  </si>
-  <si>
-    <t>Rubina Drug House</t>
-  </si>
-  <si>
-    <t>Talukder Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Gate Sadar Road Barisal                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munsir Grage Bogura Road Barisal                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muguria Lalmohan Bhola                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boalia Bakerganj Barisal                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stadium Market Bandh Road Barisal                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakerganj Bakerganj Barisal                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koralia Manpura Bhola                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawkhali Pirojpur                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tekerhat                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awar Bazar Banaripara Barisal                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razapur Bazar Rajapur Jhalokathi                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guthia Babuganj Barisal                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalirpar Tekerhat                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisharkandi Bazer Hartapara Banaripara                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puran Bazar Madaripur                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakutia Barisal                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khaleker Hat Kalkini Madaripur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paisherhat                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadar Road Bhola                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akota Bazar, Hijla, Barisal                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ65                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG36                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606466     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606499     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606644     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606729     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606478     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606728     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606699     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607242     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607106     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607112     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607031     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607227     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606757     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607127     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607041     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606992     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607208     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607269     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607834     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607774     </t>
-  </si>
-  <si>
-    <t>06 Dec 2020</t>
-  </si>
-  <si>
-    <t>07 Dec 2020</t>
-  </si>
-  <si>
-    <t>08 Dec 2020</t>
+    <t>43061100325</t>
+  </si>
+  <si>
+    <t>43061109649</t>
+  </si>
+  <si>
+    <t>90000005507</t>
+  </si>
+  <si>
+    <t>43061101921</t>
+  </si>
+  <si>
+    <t>90000032519</t>
+  </si>
+  <si>
+    <t>43061109273</t>
+  </si>
+  <si>
+    <t>43061193123</t>
+  </si>
+  <si>
+    <t>43061100871</t>
+  </si>
+  <si>
+    <t>43061109323</t>
+  </si>
+  <si>
+    <t>43061100221</t>
+  </si>
+  <si>
+    <t>43061100422</t>
+  </si>
+  <si>
+    <t>43061101004</t>
+  </si>
+  <si>
+    <t>43061000930</t>
+  </si>
+  <si>
+    <t>43061000680</t>
+  </si>
+  <si>
+    <t>43061000971</t>
+  </si>
+  <si>
+    <t>4301901016</t>
+  </si>
+  <si>
+    <t>4301901006</t>
+  </si>
+  <si>
+    <t>43061101283</t>
+  </si>
+  <si>
+    <t>4301901254</t>
+  </si>
+  <si>
+    <t>43061101227</t>
+  </si>
+  <si>
+    <t>Rabeya Pharmacy</t>
+  </si>
+  <si>
+    <t>Life Care Medicin Center</t>
+  </si>
+  <si>
+    <t>Dr. Taufiqur Rahman</t>
+  </si>
+  <si>
+    <t>Shakib Pharmacy</t>
+  </si>
+  <si>
+    <t>Akash Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Anup</t>
+  </si>
+  <si>
+    <t>Hasina Medical</t>
+  </si>
+  <si>
+    <t>Dianot Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Lisa Medical Hall</t>
+  </si>
+  <si>
+    <t>Bajlo Medical Holl</t>
+  </si>
+  <si>
+    <t>Tithi Sathi Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taher Clinic  One </t>
+  </si>
+  <si>
+    <t>Naz Pharmacy</t>
+  </si>
+  <si>
+    <t>Happy Look Pharmacy</t>
+  </si>
+  <si>
+    <t>Janata Pharmacy</t>
+  </si>
+  <si>
+    <t>Bangladesh Medical Hall</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Ashik Pharmacy</t>
+  </si>
+  <si>
+    <t>Shelidha Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshona Bus Stand Darshona                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karpasdanga Bazar Dorshona Chuadanga                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinnanagar Bazar Chuadanga                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notun Bazar.Poradha Bazar Mirpur Kushtia                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopinatpur Bazar.Mohammadpur.                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhawdia Bazar Bittipara Kushtia                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangni Bazar Meherpur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhawra Bazar Shoilokupa                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shithaly Bazar Sailokupa                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gokulkhali Bazar Chuadanga                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court Road Chuadanga                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamundi Bazar                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Road Meherpur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benipur Kochua Shoilokupa                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G K Koloni Bheramara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langolbond Bazar Magura                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langolbond Bazar Langbad magura  nd                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchiamara Bheramara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpara Bazar Magura                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelidah Bazar Kumarkhali                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC15                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-563752     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564015     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-563654     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-563540     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-563893     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564170     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564138     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564150     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564362     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564315     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564310     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564437     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564090     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564549     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564796     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564785     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564551     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564820     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564656     </t>
+  </si>
+  <si>
+    <t>14 Dec 2020</t>
+  </si>
+  <si>
+    <t>15 Dec 2020</t>
+  </si>
+  <si>
+    <t>16 Dec 2020</t>
   </si>
 </sst>
 </file>
@@ -759,10 +756,10 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -771,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10002.79</v>
+        <v>11949.18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -791,10 +788,10 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10001.85</v>
+        <v>5930.94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -823,10 +820,10 @@
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9984.549999999999</v>
+        <v>5280.4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -855,10 +852,10 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -867,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9786.17</v>
+        <v>5034.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -887,10 +884,10 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -899,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6974.23</v>
+        <v>4942.21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -916,13 +913,13 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -931,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5004.29</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -948,10 +945,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>105</v>
@@ -960,10 +957,10 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>4994.58</v>
+        <v>21020.3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -980,13 +977,13 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -995,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>18764.18</v>
+        <v>14978.47</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1015,10 +1012,10 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1027,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>14973.92</v>
+        <v>10059.72</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1047,10 +1044,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1059,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>10094.38</v>
+        <v>10016.07</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1076,13 +1073,13 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1091,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>10090.74</v>
+        <v>9982.530000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1108,13 +1105,13 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -1123,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>10043.47</v>
+        <v>9468.83</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1140,13 +1137,13 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -1155,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>9995.440000000001</v>
+        <v>8082.77</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1172,13 +1169,13 @@
         <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1187,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>8672.82</v>
+        <v>6112.29</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1204,10 +1201,10 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>106</v>
@@ -1216,10 +1213,10 @@
         <v>30</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>8025.16</v>
+        <v>15124.03</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1236,10 +1233,10 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -1248,10 +1245,10 @@
         <v>30</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>7946.19</v>
+        <v>15085.51</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1271,7 +1268,7 @@
         <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>106</v>
@@ -1280,10 +1277,10 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>5510.38</v>
+        <v>12093.7</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1300,10 +1297,10 @@
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
         <v>106</v>
@@ -1312,10 +1309,10 @@
         <v>30</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>4943.96</v>
+        <v>12005.57</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1332,13 +1329,13 @@
         <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20">
         <v>30</v>
@@ -1347,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>74294.59</v>
+        <v>9783.790000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1364,13 +1361,13 @@
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -1379,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>25009.7</v>
+        <v>7609.56</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMaturedTable.xlsx
+++ b/Data/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,199 +43,193 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>43061100325</t>
-  </si>
-  <si>
-    <t>43061109649</t>
-  </si>
-  <si>
-    <t>90000005507</t>
-  </si>
-  <si>
-    <t>43061101921</t>
-  </si>
-  <si>
-    <t>90000032519</t>
+    <t>4201118260</t>
+  </si>
+  <si>
+    <t>43061101283</t>
+  </si>
+  <si>
+    <t>43061104050</t>
+  </si>
+  <si>
+    <t>43061104949</t>
+  </si>
+  <si>
+    <t>43061104603</t>
+  </si>
+  <si>
+    <t>43061000223</t>
+  </si>
+  <si>
+    <t>43061000237</t>
+  </si>
+  <si>
+    <t>43061001512</t>
+  </si>
+  <si>
+    <t>43061109327</t>
+  </si>
+  <si>
+    <t>43061000164</t>
+  </si>
+  <si>
+    <t>43061104425</t>
+  </si>
+  <si>
+    <t>43061104532</t>
+  </si>
+  <si>
+    <t>43061109541</t>
+  </si>
+  <si>
+    <t>43061100767</t>
+  </si>
+  <si>
+    <t>43061100472</t>
+  </si>
+  <si>
+    <t>43061109295</t>
   </si>
   <si>
     <t>43061109273</t>
   </si>
   <si>
-    <t>43061193123</t>
-  </si>
-  <si>
-    <t>43061100871</t>
-  </si>
-  <si>
-    <t>43061109323</t>
-  </si>
-  <si>
-    <t>43061100221</t>
-  </si>
-  <si>
-    <t>43061100422</t>
-  </si>
-  <si>
-    <t>43061101004</t>
-  </si>
-  <si>
-    <t>43061000930</t>
-  </si>
-  <si>
-    <t>43061000680</t>
-  </si>
-  <si>
-    <t>43061000971</t>
-  </si>
-  <si>
-    <t>4301901016</t>
-  </si>
-  <si>
-    <t>4301901006</t>
-  </si>
-  <si>
-    <t>43061101283</t>
-  </si>
-  <si>
-    <t>4301901254</t>
-  </si>
-  <si>
-    <t>43061101227</t>
-  </si>
-  <si>
-    <t>Rabeya Pharmacy</t>
-  </si>
-  <si>
-    <t>Life Care Medicin Center</t>
-  </si>
-  <si>
-    <t>Dr. Taufiqur Rahman</t>
-  </si>
-  <si>
-    <t>Shakib Pharmacy</t>
-  </si>
-  <si>
-    <t>Akash Pharmacy</t>
+    <t>43061000941</t>
+  </si>
+  <si>
+    <t>Biswas Chikitshaloy</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Rina Pharmacy</t>
+  </si>
+  <si>
+    <t>Kohinur Nursing Home</t>
+  </si>
+  <si>
+    <t>Jasim Pharmacy</t>
+  </si>
+  <si>
+    <t>Hira Pharmacy</t>
+  </si>
+  <si>
+    <t>Yasin Pharmacy</t>
+  </si>
+  <si>
+    <t>Sri Krisna Pharmacy</t>
+  </si>
+  <si>
+    <t>Moon Pharmacy</t>
+  </si>
+  <si>
+    <t>Mondol Pharmacy</t>
+  </si>
+  <si>
+    <t>Haque Pharmacy</t>
+  </si>
+  <si>
+    <t>Tuhin Medical Hall</t>
+  </si>
+  <si>
+    <t>Bijoe Chekissalay</t>
+  </si>
+  <si>
+    <t>Rekha Pharmacy</t>
+  </si>
+  <si>
+    <t>Iqbal Pharmacy</t>
+  </si>
+  <si>
+    <t>Raife Pharmacy</t>
   </si>
   <si>
     <t>Dr Anup</t>
   </si>
   <si>
-    <t>Hasina Medical</t>
-  </si>
-  <si>
-    <t>Dianot Pharmacy</t>
-  </si>
-  <si>
-    <t>Biswas Pharmacy</t>
-  </si>
-  <si>
-    <t>Lisa Medical Hall</t>
-  </si>
-  <si>
-    <t>Bajlo Medical Holl</t>
-  </si>
-  <si>
-    <t>Tithi Sathi Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taher Clinic  One </t>
-  </si>
-  <si>
-    <t>Naz Pharmacy</t>
-  </si>
-  <si>
-    <t>Happy Look Pharmacy</t>
-  </si>
-  <si>
-    <t>Janata Pharmacy</t>
-  </si>
-  <si>
-    <t>Bangladesh Medical Hall</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t>Ashik Pharmacy</t>
-  </si>
-  <si>
-    <t>Shelidha Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darshona Bus Stand Darshona                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karpasdanga Bazar Dorshona Chuadanga                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinnanagar Bazar Chuadanga                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notun Bazar.Poradha Bazar Mirpur Kushtia                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gopinatpur Bazar.Mohammadpur.                               </t>
+    <t>Huda Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maspara Bazar Pangsha Rajbari                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchiamara Bheramara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital GateDaulotpur Bheramara                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dangmorka Daulotpur                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokkhin Rail Gate Bheramara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Road,Alamdanga                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Road Alamdanga                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horinarayanpurs lami university                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High RoadAlamdanga Alamdanga Chuadanga                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshona Bazar Darshona                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talsar Bazar Mohespur.Jhenaidha.                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagumpur bazar Darshna                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalicaron pur Jhenida                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puratan Hatkhala Jhenaidha                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumargara Kushtia                                           </t>
   </si>
   <si>
     <t xml:space="preserve">Jhawdia Bazar Bittipara Kushtia                             </t>
   </si>
   <si>
-    <t xml:space="preserve">Gangni Bazar Meherpur                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhawra Bazar Shoilokupa                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shithaly Bazar Sailokupa                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gokulkhali Bazar Chuadanga                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Court Road Chuadanga                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bamundi Bazar                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">College Road Meherpur                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benipur Kochua Shoilokupa                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G K Koloni Bheramara                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langolbond Bazar Magura                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langolbond Bazar Langbad magura  nd                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuchiamara Bheramara                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arpara Bazar Magura                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelidah Bazar Kumarkhali                                   </t>
+    <t xml:space="preserve">Gangni Bazar Gangni Meherpur                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC13                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">KC53                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC62                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">KC52                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR64                                                        </t>
+    <t xml:space="preserve">KC42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC12                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">KC15                                                        </t>
@@ -244,97 +238,73 @@
     <t xml:space="preserve">KC73                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563752     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564015     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563654     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564076     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563540     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563893     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564170     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564138     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564150     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564362     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564315     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564310     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564437     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564090     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564549     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564796     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564785     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564551     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564820     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564656     </t>
-  </si>
-  <si>
-    <t>14 Dec 2020</t>
-  </si>
-  <si>
-    <t>15 Dec 2020</t>
-  </si>
-  <si>
-    <t>16 Dec 2020</t>
+    <t xml:space="preserve">SKINV430-577387     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577237     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577274     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577382     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578083     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577905     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578078     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578082     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577940     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577872     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577723     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577729     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578052     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577887     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577840     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577898     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577789     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578250     </t>
+  </si>
+  <si>
+    <t>17 Jan 2021</t>
+  </si>
+  <si>
+    <t>18 Jan 2021</t>
+  </si>
+  <si>
+    <t>19 Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -747,19 +717,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -768,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11949.18</v>
+        <v>20046.68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -779,19 +749,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -800,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5930.94</v>
+        <v>15079.75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -811,19 +781,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -832,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5280.4</v>
+        <v>11034.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -843,19 +813,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -864,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5034.61</v>
+        <v>10296.37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -875,19 +845,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -896,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4942.21</v>
+        <v>1000.32</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -907,28 +877,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>3000</v>
+        <v>78439.44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -939,19 +909,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -960,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>21020.3</v>
+        <v>59941.99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -971,19 +941,19 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -992,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>14978.47</v>
+        <v>44809.9</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1003,19 +973,19 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1024,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>10059.72</v>
+        <v>39867.12</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1035,19 +1005,19 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1056,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>10016.07</v>
+        <v>33540.48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1067,19 +1037,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1088,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>9982.530000000001</v>
+        <v>22950.78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1099,20 +1069,20 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
       <c r="H13">
         <v>30</v>
       </c>
@@ -1120,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>9468.83</v>
+        <v>19476.25</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1128,22 +1098,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -1152,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>8082.77</v>
+        <v>18279.13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1160,22 +1130,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1184,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6112.29</v>
+        <v>18021.04</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1192,31 +1162,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>15124.03</v>
+        <v>15280.02</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1224,31 +1194,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>15085.51</v>
+        <v>15083.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1256,31 +1226,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>12093.7</v>
+        <v>10132.16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1288,31 +1258,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>12005.57</v>
+        <v>4938.71</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1320,31 +1290,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>9783.790000000001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1352,22 +1322,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -1376,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>7609.56</v>
+        <v>50061.24</v>
       </c>
     </row>
   </sheetData>
